--- a/Data/Export/31 RB Haut Cheran.xlsx
+++ b/Data/Export/31 RB Haut Cheran.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arbres!$A$1:$Q$793</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Placettes!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="148">
   <si>
     <t>num</t>
   </si>
@@ -471,28 +466,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -500,27 +496,17 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -545,13 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,8 +551,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -576,37 +571,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,43 +590,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Pourcentage 2" xfId="3"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Header" xfId="6"/>
+    <cellStyle name="XLConnect.Numeric" xfId="7"/>
+    <cellStyle name="XLConnect.String" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -940,18 +899,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4740" topLeftCell="A35"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -1009,8 +968,11 @@
       <c r="S1" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>31</v>
       </c>
@@ -1039,7 +1001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>31</v>
       </c>
@@ -1068,7 +1030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -1097,7 +1059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>31</v>
       </c>
@@ -1126,7 +1088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -1155,7 +1117,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>31</v>
       </c>
@@ -1184,7 +1146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>31</v>
       </c>
@@ -1213,7 +1175,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -1242,7 +1204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>31</v>
       </c>
@@ -1271,7 +1233,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -1300,7 +1262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -1329,7 +1291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>31</v>
       </c>
@@ -1358,7 +1320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>31</v>
       </c>
@@ -1387,7 +1349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>31</v>
       </c>
@@ -1416,7 +1378,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>31</v>
       </c>
@@ -2056,30 +2018,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q37"/>
-  <sortState ref="A2:V37">
-    <sortCondition ref="B2:B37"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2500" topLeftCell="A791"/>
+      <pane ySplit="2505" topLeftCell="A791"/>
       <selection activeCell="D3" sqref="D3:D793"/>
       <selection pane="bottomLeft" activeCell="D797" sqref="D797"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
@@ -30748,28 +30703,24 @@
       <c r="O793" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="L391:M792" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
@@ -34764,24 +34715,20 @@
       <c r="M110" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -39152,27 +39099,23 @@
       <c r="L121" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K121" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
@@ -42343,27 +42286,23 @@
       <c r="M83" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L83" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -42389,39 +42328,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -42443,16 +42378,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13">
+      <c r="A3">
         <v>31</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="11">
@@ -42460,16 +42395,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13">
+      <c r="A4">
         <v>31</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="11">
@@ -42477,16 +42412,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13">
+      <c r="A5">
         <v>31</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="11">
@@ -42494,16 +42429,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6">
         <v>31</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="12">
@@ -42511,16 +42446,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13">
+      <c r="A7">
         <v>31</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="12">
@@ -42528,16 +42463,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13">
+      <c r="A8">
         <v>31</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="12">
@@ -42545,16 +42480,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13">
+      <c r="A9">
         <v>31</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="12">
@@ -42562,16 +42497,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13">
+      <c r="A10">
         <v>31</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" s="12">
@@ -42579,16 +42514,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11">
         <v>31</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="12">
@@ -42596,16 +42531,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13">
+      <c r="A12">
         <v>31</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="12">
@@ -42613,16 +42548,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13">
+      <c r="A13">
         <v>31</v>
       </c>
       <c r="B13">
         <v>14</v>
       </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" s="12">
@@ -42630,16 +42565,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13">
+      <c r="A14">
         <v>31</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" s="12">
@@ -42647,16 +42582,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13">
+      <c r="A15">
         <v>31</v>
       </c>
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="12">
@@ -42664,16 +42599,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13">
+      <c r="A16">
         <v>31</v>
       </c>
       <c r="B16">
         <v>17</v>
       </c>
-      <c r="C16" s="13">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" s="12">
@@ -42681,16 +42616,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="13">
+      <c r="A17">
         <v>31</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
-      <c r="C17" s="13">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" s="12">
@@ -42698,16 +42633,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13">
+      <c r="A18">
         <v>31</v>
       </c>
       <c r="B18">
         <v>19</v>
       </c>
-      <c r="C18" s="13">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="12">
@@ -42715,16 +42650,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13">
+      <c r="A19">
         <v>31</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="12">
@@ -42732,16 +42667,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13">
+      <c r="A20">
         <v>31</v>
       </c>
       <c r="B20">
         <v>21</v>
       </c>
-      <c r="C20" s="13">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" s="12">
@@ -42749,16 +42684,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13">
+      <c r="A21">
         <v>31</v>
       </c>
       <c r="B21">
         <v>22</v>
       </c>
-      <c r="C21" s="13">
-        <v>1</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="12">
@@ -42766,16 +42701,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13">
+      <c r="A22">
         <v>31</v>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" s="12">
@@ -42783,16 +42718,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13">
+      <c r="A23">
         <v>31</v>
       </c>
       <c r="B23">
         <v>25</v>
       </c>
-      <c r="C23" s="13">
-        <v>1</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" s="12">
@@ -42800,16 +42735,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13">
+      <c r="A24">
         <v>31</v>
       </c>
       <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" s="12">
@@ -42817,16 +42752,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="13">
+      <c r="A25">
         <v>31</v>
       </c>
       <c r="B25">
         <v>27</v>
       </c>
-      <c r="C25" s="13">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="12">
@@ -42834,16 +42769,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13">
+      <c r="A26">
         <v>31</v>
       </c>
       <c r="B26">
         <v>28</v>
       </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="12">
@@ -42851,16 +42786,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13">
+      <c r="A27">
         <v>31</v>
       </c>
       <c r="B27">
         <v>29</v>
       </c>
-      <c r="C27" s="13">
-        <v>1</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" s="12">
@@ -42868,16 +42803,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="13">
+      <c r="A28">
         <v>31</v>
       </c>
       <c r="B28">
         <v>34</v>
       </c>
-      <c r="C28" s="13">
-        <v>1</v>
-      </c>
-      <c r="D28" s="13">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" s="12">
@@ -42885,16 +42820,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="13">
+      <c r="A29">
         <v>31</v>
       </c>
       <c r="B29">
         <v>36</v>
       </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" s="12">
@@ -42902,16 +42837,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="13">
+      <c r="A30">
         <v>31</v>
       </c>
       <c r="B30">
         <v>37</v>
       </c>
-      <c r="C30" s="13">
-        <v>1</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" s="12">
@@ -42919,16 +42854,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="13">
+      <c r="A31">
         <v>31</v>
       </c>
       <c r="B31">
         <v>42</v>
       </c>
-      <c r="C31" s="13">
-        <v>1</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" s="12">
@@ -42936,16 +42871,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="13">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>43</v>
       </c>
-      <c r="C32" s="13">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" s="12">
@@ -42953,16 +42888,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>46</v>
       </c>
-      <c r="C33" s="13">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" s="12">
@@ -42970,16 +42905,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="13">
+      <c r="A34">
         <v>31</v>
       </c>
       <c r="B34">
         <v>51</v>
       </c>
-      <c r="C34" s="13">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" s="12">
@@ -42987,16 +42922,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="13">
+      <c r="A35">
         <v>31</v>
       </c>
       <c r="B35">
         <v>52</v>
       </c>
-      <c r="C35" s="13">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" s="12">
@@ -43004,16 +42939,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="13">
+      <c r="A36">
         <v>31</v>
       </c>
       <c r="B36">
         <v>58</v>
       </c>
-      <c r="C36" s="13">
-        <v>1</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" s="12">
@@ -43021,16 +42956,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="13">
+      <c r="A37">
         <v>31</v>
       </c>
       <c r="B37">
         <v>63</v>
       </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" s="12">
@@ -43038,11 +42973,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>